--- a/MOM.xlsx
+++ b/MOM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D26656-A357-4D96-AFF9-597A1B7FA958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C72F8A-D071-4545-825B-1D43690C8A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -374,13 +374,16 @@
   <si>
     <t xml:space="preserve">Arrange - MCQ Exam Link </t>
   </si>
+  <si>
+    <t>Test123</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -660,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -700,44 +703,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -748,39 +714,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1136,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:H64"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1448,13 +1448,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23">
+      <c r="A22" s="33">
         <v>45505</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1473,9 +1473,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1488,9 +1488,9 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1503,9 +1503,9 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1518,9 +1518,9 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1533,9 +1533,9 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1552,9 +1552,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="24"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1569,9 +1569,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1586,9 +1586,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1603,9 +1603,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1620,9 +1620,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1637,9 +1637,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1661,10 +1661,10 @@
       <c r="C35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="34"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="22" t="s">
         <v>51</v>
       </c>
@@ -1679,19 +1679,19 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="23">
+      <c r="A36" s="33">
         <v>45538</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="32"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="2" t="s">
         <v>25</v>
       </c>
@@ -1702,13 +1702,13 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="32" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="32"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="2"/>
       <c r="G37" s="19">
         <v>45505</v>
@@ -1717,13 +1717,13 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="32" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="32"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="2"/>
       <c r="G38" s="19">
         <v>45505</v>
@@ -1732,13 +1732,13 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="32" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="32"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="2"/>
       <c r="G39" s="18"/>
       <c r="H39" s="2"/>
@@ -1747,24 +1747,24 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="2"/>
       <c r="G40" s="19"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="47" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="32"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="2" t="s">
         <v>25</v>
       </c>
@@ -1775,35 +1775,35 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="2"/>
       <c r="G42" s="19"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="24"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="2"/>
       <c r="G43" s="19"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="24"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="32" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="32"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="2" t="s">
         <v>25</v>
       </c>
@@ -1814,13 +1814,13 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="32" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="32"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="2" t="s">
         <v>57</v>
       </c>
@@ -1831,13 +1831,13 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="24"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="31" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="32"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="2" t="s">
         <v>58</v>
       </c>
@@ -1846,11 +1846,11 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="25"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1866,10 +1866,10 @@
       <c r="C49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="50"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="22" t="s">
         <v>51</v>
       </c>
@@ -1884,183 +1884,183 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="23">
+      <c r="A50" s="33">
         <v>45544</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="46"/>
+      <c r="G50" s="31"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="24"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="52" t="s">
+      <c r="A51" s="34"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="52"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="31">
         <v>45549</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="52" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="52"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="31">
         <v>45549</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="24"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="52" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="52"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="31">
         <v>45549</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="24"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="52" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="52"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="31">
         <v>45549</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="52" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="52"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="31">
         <v>45549</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="24"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="52" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="52"/>
+      <c r="E56" s="41"/>
       <c r="F56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="46">
+      <c r="G56" s="31">
         <v>45549</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="31" t="s">
+      <c r="A57" s="34"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="31"/>
+      <c r="E57" s="45"/>
       <c r="F57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="46">
+      <c r="G57" s="31">
         <v>45546</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="24"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="53" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="54"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="46">
+      <c r="G58" s="31">
         <v>45549</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="24"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="31" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E59" s="31"/>
+      <c r="E59" s="45"/>
       <c r="F59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="46"/>
+      <c r="G59" s="31"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="24"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="31" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="31"/>
+      <c r="E60" s="45"/>
       <c r="F60" s="2" t="s">
         <v>25</v>
       </c>
@@ -2071,13 +2071,13 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="24"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="31" t="s">
+      <c r="A61" s="34"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="31"/>
+      <c r="E61" s="45"/>
       <c r="F61" s="2" t="s">
         <v>25</v>
       </c>
@@ -2088,30 +2088,30 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="24"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="31" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="31"/>
+      <c r="E62" s="45"/>
       <c r="F62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="31">
         <v>45549</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="24"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="48" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E63" s="48"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="20" t="s">
         <v>58</v>
       </c>
@@ -2120,13 +2120,13 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="25"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="48" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E64" s="48"/>
+      <c r="E64" s="32"/>
       <c r="F64" s="2" t="s">
         <v>25</v>
       </c>
@@ -2134,27 +2134,22 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A50:A64"/>
-    <mergeCell ref="B50:B64"/>
-    <mergeCell ref="C50:C64"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="C22:C33"/>
+    <mergeCell ref="A36:A47"/>
+    <mergeCell ref="B36:B47"/>
+    <mergeCell ref="C36:C47"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D44:E44"/>
@@ -2165,15 +2160,25 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="C22:C33"/>
-    <mergeCell ref="A36:A47"/>
-    <mergeCell ref="B36:B47"/>
-    <mergeCell ref="C36:C47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A50:A64"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C64"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" display="https://exams.almsoftware.in/Login?ReturnUrl=%2fClass%3fClassId%3dXP3&amp;ClassId=XP3" xr:uid="{D0003D9A-146C-44EE-91AF-5522717ECD2E}"/>
@@ -2207,49 +2212,49 @@
       <c r="A1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="26">
         <v>45543</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="26">
         <v>45550</v>
       </c>
-      <c r="F1" s="39">
+      <c r="F1" s="26">
         <v>45557</v>
       </c>
-      <c r="G1" s="39">
+      <c r="G1" s="26">
         <v>45564</v>
       </c>
-      <c r="H1" s="39">
+      <c r="H1" s="26">
         <v>45571</v>
       </c>
-      <c r="I1" s="39">
+      <c r="I1" s="26">
         <v>45578</v>
       </c>
-      <c r="J1" s="39">
+      <c r="J1" s="26">
         <v>45585</v>
       </c>
-      <c r="K1" s="39">
+      <c r="K1" s="26">
         <v>45592</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
     </row>
     <row r="2" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="2"/>
@@ -2273,7 +2278,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2301,7 +2306,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2329,7 +2334,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2423,25 +2428,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="25">
         <v>45565</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="25">
         <v>45595</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="25">
         <v>45626</v>
       </c>
-      <c r="G1" s="38">
+      <c r="G1" s="25">
         <v>45656</v>
       </c>
     </row>
@@ -2449,7 +2454,7 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2557,7 +2562,7 @@
       <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="2"/>
@@ -2607,12 +2612,12 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="28" t="s">
         <v>89</v>
       </c>
       <c r="C14" t="s">
@@ -2620,7 +2625,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="28" t="s">
         <v>88</v>
       </c>
       <c r="C15" t="s">
@@ -2668,7 +2673,7 @@
       <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="30" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2680,7 +2685,7 @@
       <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="30" t="s">
         <v>82</v>
       </c>
     </row>

--- a/MOM.xlsx
+++ b/MOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C72F8A-D071-4545-825B-1D43690C8A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA012C-7104-48FE-B931-0D0094C56F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,7 +723,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -743,44 +746,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,7 +811,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>26100</xdr:colOff>
+      <xdr:colOff>29275</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>132963</xdr:rowOff>
     </xdr:to>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1448,13 +1448,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33">
+      <c r="A22" s="34">
         <v>45505</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1473,9 +1473,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1488,9 +1488,9 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1503,9 +1503,9 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1518,9 +1518,9 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1533,9 +1533,9 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1552,9 +1552,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1569,9 +1569,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1586,9 +1586,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1603,9 +1603,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1620,9 +1620,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1637,9 +1637,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="35"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1661,10 +1661,10 @@
       <c r="C35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="47"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="22" t="s">
         <v>51</v>
       </c>
@@ -1679,19 +1679,19 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33">
+      <c r="A36" s="34">
         <v>45538</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="48"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="2" t="s">
         <v>25</v>
       </c>
@@ -1702,13 +1702,13 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="34"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="48" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="48"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="2"/>
       <c r="G37" s="19">
         <v>45505</v>
@@ -1717,13 +1717,13 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="34"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="48" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="2"/>
       <c r="G38" s="19">
         <v>45505</v>
@@ -1732,13 +1732,13 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="48" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="48"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="2"/>
       <c r="G39" s="18"/>
       <c r="H39" s="2"/>
@@ -1747,24 +1747,24 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="2"/>
       <c r="G40" s="19"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="34"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="49" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="48"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="2" t="s">
         <v>25</v>
       </c>
@@ -1775,35 +1775,35 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="34"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="2"/>
       <c r="G42" s="19"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="34"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="2"/>
       <c r="G43" s="19"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="34"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="48" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="48"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="2" t="s">
         <v>25</v>
       </c>
@@ -1814,13 +1814,13 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="34"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="48" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="48"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="2" t="s">
         <v>57</v>
       </c>
@@ -1831,13 +1831,13 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="34"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="45" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="48"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="2" t="s">
         <v>58</v>
       </c>
@@ -1846,11 +1846,11 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="35"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1866,10 +1866,10 @@
       <c r="C49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="43"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="22" t="s">
         <v>51</v>
       </c>
@@ -1884,32 +1884,32 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="33">
+      <c r="A50" s="34">
         <v>45544</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="44"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="2"/>
       <c r="G50" s="31"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="41" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="2" t="s">
         <v>90</v>
       </c>
@@ -1920,13 +1920,13 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="34"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="41" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="41"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="2" t="s">
         <v>90</v>
       </c>
@@ -1937,13 +1937,13 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="41" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="41"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="2" t="s">
         <v>53</v>
       </c>
@@ -1954,13 +1954,13 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="41" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="41"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="2" t="s">
         <v>25</v>
       </c>
@@ -1971,13 +1971,13 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="41" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="41"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="2" t="s">
         <v>25</v>
       </c>
@@ -1988,13 +1988,13 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="41" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="41"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="2" t="s">
         <v>92</v>
       </c>
@@ -2005,13 +2005,13 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="34"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="45" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="45"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="2" t="s">
         <v>13</v>
       </c>
@@ -2022,13 +2022,13 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="34"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="39" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="40"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="2" t="s">
         <v>25</v>
       </c>
@@ -2039,13 +2039,13 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="34"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="45" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E59" s="45"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="2" t="s">
         <v>25</v>
       </c>
@@ -2054,13 +2054,13 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="34"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="45" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="45"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="2" t="s">
         <v>25</v>
       </c>
@@ -2071,13 +2071,13 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="34"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="45" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="45"/>
+      <c r="E61" s="33"/>
       <c r="F61" s="2" t="s">
         <v>25</v>
       </c>
@@ -2088,13 +2088,13 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="34"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="45" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="45"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="2" t="s">
         <v>25</v>
       </c>
@@ -2105,13 +2105,13 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="34"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="32" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E63" s="32"/>
+      <c r="E63" s="49"/>
       <c r="F63" s="20" t="s">
         <v>58</v>
       </c>
@@ -2120,13 +2120,13 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="35"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="32" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E64" s="32"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="2" t="s">
         <v>25</v>
       </c>
@@ -2134,13 +2134,38 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>106</v>
       </c>
+      <c r="B66">
+        <v>1234</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A50:A64"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C64"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D46:E46"/>
@@ -2157,28 +2182,6 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A50:A64"/>
-    <mergeCell ref="B50:B64"/>
-    <mergeCell ref="C50:C64"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" display="https://exams.almsoftware.in/Login?ReturnUrl=%2fClass%3fClassId%3dXP3&amp;ClassId=XP3" xr:uid="{D0003D9A-146C-44EE-91AF-5522717ECD2E}"/>
